--- a/biology/Médecine/Stomatite/Stomatite.xlsx
+++ b/biology/Médecine/Stomatite/Stomatite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Une stomatite est une inflammation de la muqueuse buccale. Elle peut être provoquée par une infection ou induite par certains médicaments ou une radiothérapie.
 Il en existe de plusieurs types :
-les stomatites mycosiques[1] :
+les stomatites mycosiques :
 les stomatites candidosiques aigües : elles sont causées par un champignon. Exemple : le muguet buccal, fréquent chez le nourrisson. Un érythème induit une langue dépapillée et vernissée, les muqueuses jugales et vélo-palatines sont sèches. Par la suite, apparaît un enduit blanchâtre, adhérent à la muqueuse, confluant en des pseudo-membranes se détachant au raclage. Les étiologies sont pour l'essentiel les états d'immuno-suppression ainsi que la prise prolongée de corticoïdes en inhalation ou d'antibiotiques,
 les stomatites candidosiques chroniques :
 la perlèche, avec un érythème sec, érosif, au niveau des commissures labiales,
@@ -500,8 +512,8 @@
 les stomatites à coxsackie, liées à coxsackie A16, avec une atteinte vésiculeuse buccale, de la pulpe des doigts, des orteils, des faces latérales des paumes des mains et des plantes des pieds ;
 les stomatites à HPV, rares, réalisent de multiples papillomes de la muqueuse buccale ;
 les stomatites médicamenteuses : à la suite du méthotrexate par exemple ;
-les stomatites radiques : complication d'une radiothérapie, instaurée dans la prise en charge thérapeutique d'un cancer des voies aéro-digestives supérieures par exemple[2].
-Le traitement des stomatites associe[1] : 
+les stomatites radiques : complication d'une radiothérapie, instaurée dans la prise en charge thérapeutique d'un cancer des voies aéro-digestives supérieures par exemple.
+Le traitement des stomatites associe : 
 un traitement symptomatique : au moyen de bains de bouche antiseptiques, des solutions tampons d'eau bicarbonatée, des antalgiques par voie générale, avec le support d'une alimentation mixée, froide ;
 un traitement des facteurs favorisants : bonne hygiène buccale, suppression de l'alcool, du tabac… ;
 un traitement de la cause : anti-infectieux spécifique. Par exemple, dans le cas d'une stomatite candidosique, un anti-fongique local en bains de bouche (nystatine, amphotéricine B) chez le patient immuno-compétent et chez le patient immuno-compromis, le fluconazole per os peut être utilisé.</t>
